--- a/model/results/mix3_ggpos_h2pos/v_inv_tech.xlsx
+++ b/model/results/mix3_ggpos_h2pos/v_inv_tech.xlsx
@@ -781,19 +781,19 @@
         <v>2022</v>
       </c>
       <c r="B3" t="n">
-        <v>606923076.9230772</v>
+        <v>606923076.9230769</v>
       </c>
       <c r="C3" t="n">
-        <v>606923076.9230772</v>
+        <v>606923076.9230769</v>
       </c>
       <c r="D3" t="n">
         <v>606923076.9230772</v>
       </c>
       <c r="E3" t="n">
+        <v>241500000</v>
+      </c>
+      <c r="F3" t="n">
         <v>185769230.7692309</v>
-      </c>
-      <c r="F3" t="n">
-        <v>241500000</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1136,37 +1136,37 @@
         <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>18000000.00000001</v>
+        <v>18000000</v>
       </c>
       <c r="AH5" t="n">
-        <v>12000000.00000001</v>
+        <v>12000000</v>
       </c>
       <c r="AI5" t="n">
-        <v>10200000.00000001</v>
+        <v>10200000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10200000.00000001</v>
+        <v>10200000</v>
       </c>
       <c r="AK5" t="n">
-        <v>24000000.00000002</v>
+        <v>24000000</v>
       </c>
       <c r="AL5" t="n">
-        <v>24000000.00000002</v>
+        <v>24000000</v>
       </c>
       <c r="AM5" t="n">
-        <v>10200000.00000001</v>
+        <v>10200000</v>
       </c>
       <c r="AN5" t="n">
-        <v>18000000.00000001</v>
+        <v>18000000</v>
       </c>
       <c r="AO5" t="n">
-        <v>10200000.00000001</v>
+        <v>10200000</v>
       </c>
       <c r="AP5" t="n">
-        <v>10200000.00000001</v>
+        <v>10200000</v>
       </c>
       <c r="AQ5" t="n">
-        <v>10200000.00000001</v>
+        <v>10200000</v>
       </c>
     </row>
     <row r="6">
@@ -1174,19 +1174,19 @@
         <v>2025</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>876666666.6666666</v>
       </c>
       <c r="C6" t="n">
-        <v>504623942.7402855</v>
+        <v>876666666.6666666</v>
       </c>
       <c r="D6" t="n">
-        <v>876666666.6666666</v>
+        <v>164623942.7402854</v>
       </c>
       <c r="E6" t="n">
-        <v>268333333.3333333</v>
+        <v>161000000</v>
       </c>
       <c r="F6" t="n">
-        <v>429333333.3333333</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1305,19 +1305,19 @@
         <v>2026</v>
       </c>
       <c r="B7" t="n">
-        <v>876666666.6666665</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>372042723.9263811</v>
+        <v>894199474.4163908</v>
       </c>
       <c r="D7" t="n">
-        <v>894200000</v>
+        <v>303279476.4826215</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>268333333.3333333</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1436,19 +1436,19 @@
         <v>2027</v>
       </c>
       <c r="B8" t="n">
-        <v>894199999.9999999</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>523.2784883894701</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>273700000</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1567,16 +1567,16 @@
         <v>2028</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>894200000</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>408763247.4437597</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>268333333.3333333</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>14693877.55102041</v>
       </c>
       <c r="L9" t="n">
-        <v>7346938.77550022</v>
+        <v>7346938.775552886</v>
       </c>
       <c r="M9" t="n">
         <v>11938775.51020408</v>
@@ -1618,10 +1618,10 @@
         <v>9183673.469387755</v>
       </c>
       <c r="S9" t="n">
-        <v>47755102.0407843</v>
+        <v>47755102.04081632</v>
       </c>
       <c r="T9" t="n">
-        <v>918367.3469067608</v>
+        <v>918367.3469387754</v>
       </c>
       <c r="U9" t="n">
         <v>24795918.36734693</v>
@@ -1636,16 +1636,16 @@
         <v>40408163.26530612</v>
       </c>
       <c r="Y9" t="n">
-        <v>33979591.83669175</v>
+        <v>33979591.83677478</v>
       </c>
       <c r="Z9" t="n">
         <v>18367346.93877551</v>
       </c>
       <c r="AA9" t="n">
-        <v>91836.73468600046</v>
+        <v>91836.73469387754</v>
       </c>
       <c r="AB9" t="n">
-        <v>459183.6734312443</v>
+        <v>459183.6734693877</v>
       </c>
       <c r="AC9" t="n">
         <v>11020408.1632653</v>
@@ -1657,7 +1657,7 @@
         <v>24795918.36734693</v>
       </c>
       <c r="AF9" t="n">
-        <v>5510204.081632652</v>
+        <v>5510204.081587196</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
         <v>894200000</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1829,7 +1829,7 @@
         <v>2030</v>
       </c>
       <c r="B11" t="n">
-        <v>9.343636975245317e-08</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>273700000</v>
       </c>
       <c r="F16" t="n">
-        <v>273700000</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
